--- a/spec/support/coDuplicateDates.xlsx
+++ b/spec/support/coDuplicateDates.xlsx
@@ -7,13 +7,13 @@
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId4"/>
     <sheet name="Board Non-Availability Dates" sheetId="2" r:id="rId5"/>
-    <sheet name="RO &amp; CO Hearing Allocation" sheetId="3" r:id="rId6"/>
+    <sheet name="RO Allocations" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>Example</t>
   </si>
@@ -381,13 +381,10 @@
     <t>Board Non-Availability Dates and Holidays in Date Range</t>
   </si>
   <si>
-    <t>Allocation of Regional Office Video Hearings and Central Office Hearings</t>
+    <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
     <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
-    <t>Central Office</t>
   </si>
   <si>
     <t xml:space="preserve">Des Moines, IA </t>
@@ -532,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -881,34 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -939,49 +908,6 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -999,7 +925,9 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1026,6 +954,17 @@
         <color indexed="8"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -1037,7 +976,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1095,10 +1034,10 @@
     <xf numFmtId="14" fontId="8" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1107,10 +1046,10 @@
     <xf numFmtId="14" fontId="8" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1122,13 +1061,13 @@
     <xf numFmtId="14" fontId="8" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1137,19 +1076,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1158,10 +1097,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1173,7 +1112,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1188,7 +1127,7 @@
     <xf numFmtId="14" fontId="13" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1200,10 +1139,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1221,55 +1157,43 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1450,9 +1374,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1532,7 +1456,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1560,10 +1484,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1819,9 +1743,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2109,7 +2033,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2137,10 +2061,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -6353,7 +6277,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6382,30 +6306,30 @@
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" ht="47.1" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" t="s" s="58">
+      <c r="A2" s="56"/>
+      <c r="B2" t="s" s="57">
         <v>61</v>
       </c>
-      <c r="C2" t="s" s="59">
+      <c r="C2" t="s" s="58">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="60">
+      <c r="D2" t="s" s="59">
         <v>123</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -6417,19 +6341,19 @@
       <c r="N2" s="30"/>
     </row>
     <row r="3" ht="39" customHeight="1">
-      <c r="A3" t="s" s="62">
+      <c r="A3" t="s" s="60">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="63">
+      <c r="B3" t="s" s="61">
         <v>62</v>
       </c>
-      <c r="C3" t="s" s="64">
+      <c r="C3" t="s" s="62">
         <v>3</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="63">
         <v>10</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -6440,16 +6364,18 @@
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" ht="30.95" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" t="s" s="67">
-        <v>124</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69">
-        <v>5</v>
-      </c>
-      <c r="E4" s="61"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" t="s" s="65">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s" s="66">
+        <v>4</v>
+      </c>
+      <c r="D4" s="67">
+        <v>4</v>
+      </c>
+      <c r="E4" s="45"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -6461,17 +6387,17 @@
       <c r="N4" s="30"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" t="s" s="67">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s" s="71">
-        <v>4</v>
-      </c>
-      <c r="D5" s="72">
-        <v>4</v>
-      </c>
-      <c r="E5" s="61"/>
+      <c r="A5" s="68"/>
+      <c r="B5" t="s" s="65">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s" s="66">
+        <v>5</v>
+      </c>
+      <c r="D5" s="67">
+        <v>10</v>
+      </c>
+      <c r="E5" s="45"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -6483,17 +6409,17 @@
       <c r="N5" s="30"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" t="s" s="67">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s" s="71">
-        <v>5</v>
-      </c>
-      <c r="D6" s="72">
-        <v>10</v>
-      </c>
-      <c r="E6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" t="s" s="65">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>6</v>
+      </c>
+      <c r="D6" s="67">
+        <v>11</v>
+      </c>
+      <c r="E6" s="45"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -6505,17 +6431,17 @@
       <c r="N6" s="30"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" t="s" s="67">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s" s="71">
-        <v>6</v>
-      </c>
-      <c r="D7" s="72">
-        <v>11</v>
-      </c>
-      <c r="E7" s="61"/>
+      <c r="A7" s="69"/>
+      <c r="B7" t="s" s="65">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s" s="66">
+        <v>7</v>
+      </c>
+      <c r="D7" s="67">
+        <v>7</v>
+      </c>
+      <c r="E7" s="45"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -6527,17 +6453,17 @@
       <c r="N7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" t="s" s="67">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s" s="71">
-        <v>7</v>
-      </c>
-      <c r="D8" s="72">
-        <v>7</v>
-      </c>
-      <c r="E8" s="61"/>
+      <c r="A8" s="70"/>
+      <c r="B8" t="s" s="65">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s" s="66">
+        <v>8</v>
+      </c>
+      <c r="D8" s="67">
+        <v>4</v>
+      </c>
+      <c r="E8" s="45"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -6549,17 +6475,17 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" t="s" s="67">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s" s="71">
-        <v>8</v>
-      </c>
-      <c r="D9" s="72">
-        <v>4</v>
-      </c>
-      <c r="E9" s="61"/>
+      <c r="A9" s="70"/>
+      <c r="B9" t="s" s="65">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s" s="66">
+        <v>9</v>
+      </c>
+      <c r="D9" s="67">
+        <v>6</v>
+      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -6571,17 +6497,17 @@
       <c r="N9" s="30"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" t="s" s="67">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s" s="71">
-        <v>9</v>
-      </c>
-      <c r="D10" s="72">
-        <v>6</v>
-      </c>
-      <c r="E10" s="61"/>
+      <c r="A10" s="70"/>
+      <c r="B10" t="s" s="65">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s" s="66">
+        <v>10</v>
+      </c>
+      <c r="D10" s="67">
+        <v>3</v>
+      </c>
+      <c r="E10" s="45"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
@@ -6593,17 +6519,17 @@
       <c r="N10" s="30"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" t="s" s="67">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s" s="71">
-        <v>10</v>
-      </c>
-      <c r="D11" s="72">
-        <v>3</v>
-      </c>
-      <c r="E11" s="61"/>
+      <c r="A11" s="70"/>
+      <c r="B11" t="s" s="65">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s" s="66">
+        <v>11</v>
+      </c>
+      <c r="D11" s="67">
+        <v>1</v>
+      </c>
+      <c r="E11" s="45"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -6615,17 +6541,17 @@
       <c r="N11" s="30"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" t="s" s="67">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s" s="71">
-        <v>11</v>
-      </c>
-      <c r="D12" s="72">
-        <v>1</v>
-      </c>
-      <c r="E12" s="61"/>
+      <c r="A12" s="70"/>
+      <c r="B12" t="s" s="65">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s" s="66">
+        <v>12</v>
+      </c>
+      <c r="D12" s="67">
+        <v>6</v>
+      </c>
+      <c r="E12" s="45"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
@@ -6637,17 +6563,17 @@
       <c r="N12" s="30"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" t="s" s="67">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s" s="71">
-        <v>12</v>
-      </c>
-      <c r="D13" s="72">
-        <v>6</v>
-      </c>
-      <c r="E13" s="61"/>
+      <c r="A13" s="70"/>
+      <c r="B13" t="s" s="65">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="66">
+        <v>13</v>
+      </c>
+      <c r="D13" s="67">
+        <v>8</v>
+      </c>
+      <c r="E13" s="45"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -6659,17 +6585,17 @@
       <c r="N13" s="30"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" t="s" s="67">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s" s="71">
-        <v>13</v>
-      </c>
-      <c r="D14" s="72">
-        <v>8</v>
-      </c>
-      <c r="E14" s="61"/>
+      <c r="A14" s="70"/>
+      <c r="B14" t="s" s="65">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s" s="66">
+        <v>14</v>
+      </c>
+      <c r="D14" s="67">
+        <v>9</v>
+      </c>
+      <c r="E14" s="45"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -6681,17 +6607,17 @@
       <c r="N14" s="30"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" t="s" s="67">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s" s="71">
-        <v>14</v>
-      </c>
-      <c r="D15" s="72">
-        <v>9</v>
-      </c>
-      <c r="E15" s="61"/>
+      <c r="A15" s="70"/>
+      <c r="B15" t="s" s="65">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s" s="66">
+        <v>15</v>
+      </c>
+      <c r="D15" s="67">
+        <v>5</v>
+      </c>
+      <c r="E15" s="45"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
@@ -6703,17 +6629,17 @@
       <c r="N15" s="30"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" t="s" s="67">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s" s="71">
-        <v>15</v>
-      </c>
-      <c r="D16" s="72">
-        <v>5</v>
-      </c>
-      <c r="E16" s="61"/>
+      <c r="A16" s="70"/>
+      <c r="B16" t="s" s="65">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s" s="66">
+        <v>16</v>
+      </c>
+      <c r="D16" s="67">
+        <v>4</v>
+      </c>
+      <c r="E16" s="45"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -6725,17 +6651,17 @@
       <c r="N16" s="30"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" t="s" s="67">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s" s="71">
-        <v>16</v>
-      </c>
-      <c r="D17" s="72">
-        <v>4</v>
-      </c>
-      <c r="E17" s="61"/>
+      <c r="A17" s="70"/>
+      <c r="B17" t="s" s="65">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s" s="66">
+        <v>17</v>
+      </c>
+      <c r="D17" s="67">
+        <v>2</v>
+      </c>
+      <c r="E17" s="45"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -6747,17 +6673,17 @@
       <c r="N17" s="30"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" t="s" s="67">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s" s="71">
-        <v>17</v>
-      </c>
-      <c r="D18" s="72">
-        <v>2</v>
-      </c>
-      <c r="E18" s="61"/>
+      <c r="A18" s="70"/>
+      <c r="B18" t="s" s="65">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s" s="66">
+        <v>18</v>
+      </c>
+      <c r="D18" s="67">
+        <v>5</v>
+      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -6769,17 +6695,17 @@
       <c r="N18" s="30"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" t="s" s="67">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s" s="71">
-        <v>18</v>
-      </c>
-      <c r="D19" s="72">
-        <v>5</v>
-      </c>
-      <c r="E19" s="61"/>
+      <c r="A19" s="70"/>
+      <c r="B19" t="s" s="65">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s" s="66">
+        <v>19</v>
+      </c>
+      <c r="D19" s="67">
+        <v>7</v>
+      </c>
+      <c r="E19" s="45"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -6791,17 +6717,17 @@
       <c r="N19" s="30"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" t="s" s="67">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s" s="71">
-        <v>19</v>
-      </c>
-      <c r="D20" s="72">
-        <v>7</v>
-      </c>
-      <c r="E20" s="61"/>
+      <c r="A20" s="70"/>
+      <c r="B20" t="s" s="65">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="D20" s="67">
+        <v>15</v>
+      </c>
+      <c r="E20" s="45"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -6813,17 +6739,17 @@
       <c r="N20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" t="s" s="67">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s" s="71">
-        <v>20</v>
-      </c>
-      <c r="D21" s="72">
-        <v>15</v>
-      </c>
-      <c r="E21" s="61"/>
+      <c r="A21" s="70"/>
+      <c r="B21" t="s" s="65">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s" s="66">
+        <v>21</v>
+      </c>
+      <c r="D21" s="67">
+        <v>3</v>
+      </c>
+      <c r="E21" s="45"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -6835,17 +6761,17 @@
       <c r="N21" s="30"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" t="s" s="67">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s" s="71">
-        <v>21</v>
-      </c>
-      <c r="D22" s="72">
-        <v>3</v>
-      </c>
-      <c r="E22" s="61"/>
+      <c r="A22" s="70"/>
+      <c r="B22" t="s" s="65">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s" s="66">
+        <v>22</v>
+      </c>
+      <c r="D22" s="67">
+        <v>7</v>
+      </c>
+      <c r="E22" s="45"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -6857,17 +6783,17 @@
       <c r="N22" s="30"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" t="s" s="67">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s" s="71">
-        <v>22</v>
-      </c>
-      <c r="D23" s="72">
-        <v>7</v>
-      </c>
-      <c r="E23" s="61"/>
+      <c r="A23" s="70"/>
+      <c r="B23" t="s" s="65">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s" s="66">
+        <v>23</v>
+      </c>
+      <c r="D23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="45"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -6879,17 +6805,17 @@
       <c r="N23" s="30"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" t="s" s="67">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s" s="71">
-        <v>23</v>
-      </c>
-      <c r="D24" s="72">
-        <v>0</v>
-      </c>
-      <c r="E24" s="61"/>
+      <c r="A24" s="70"/>
+      <c r="B24" t="s" s="65">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s" s="66">
+        <v>24</v>
+      </c>
+      <c r="D24" s="67">
+        <v>3</v>
+      </c>
+      <c r="E24" s="45"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
@@ -6901,17 +6827,17 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" t="s" s="67">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s" s="71">
-        <v>24</v>
-      </c>
-      <c r="D25" s="72">
-        <v>3</v>
-      </c>
-      <c r="E25" s="61"/>
+      <c r="A25" s="70"/>
+      <c r="B25" t="s" s="65">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s" s="66">
+        <v>25</v>
+      </c>
+      <c r="D25" s="67">
+        <v>7</v>
+      </c>
+      <c r="E25" s="45"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -6923,17 +6849,17 @@
       <c r="N25" s="30"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" t="s" s="67">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s" s="71">
-        <v>25</v>
-      </c>
-      <c r="D26" s="72">
-        <v>7</v>
-      </c>
-      <c r="E26" s="61"/>
+      <c r="A26" s="70"/>
+      <c r="B26" t="s" s="65">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s" s="66">
+        <v>26</v>
+      </c>
+      <c r="D26" s="67">
+        <v>3</v>
+      </c>
+      <c r="E26" s="45"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
@@ -6945,17 +6871,17 @@
       <c r="N26" s="30"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="74"/>
-      <c r="B27" t="s" s="67">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s" s="71">
-        <v>26</v>
-      </c>
-      <c r="D27" s="72">
-        <v>3</v>
-      </c>
-      <c r="E27" s="61"/>
+      <c r="A27" s="70"/>
+      <c r="B27" t="s" s="65">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="D27" s="67">
+        <v>2</v>
+      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -6967,17 +6893,17 @@
       <c r="N27" s="30"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" t="s" s="67">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s" s="71">
-        <v>27</v>
-      </c>
-      <c r="D28" s="72">
-        <v>2</v>
-      </c>
-      <c r="E28" s="61"/>
+      <c r="A28" s="70"/>
+      <c r="B28" t="s" s="65">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s" s="66">
+        <v>28</v>
+      </c>
+      <c r="D28" s="67">
+        <v>5</v>
+      </c>
+      <c r="E28" s="45"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -6989,17 +6915,17 @@
       <c r="N28" s="30"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" t="s" s="67">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s" s="71">
-        <v>28</v>
-      </c>
-      <c r="D29" s="72">
-        <v>5</v>
-      </c>
-      <c r="E29" s="61"/>
+      <c r="A29" s="70"/>
+      <c r="B29" t="s" s="65">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s" s="66">
+        <v>29</v>
+      </c>
+      <c r="D29" s="67">
+        <v>7</v>
+      </c>
+      <c r="E29" s="45"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -7011,17 +6937,17 @@
       <c r="N29" s="30"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" t="s" s="67">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s" s="71">
-        <v>29</v>
-      </c>
-      <c r="D30" s="72">
-        <v>7</v>
-      </c>
-      <c r="E30" s="61"/>
+      <c r="A30" s="70"/>
+      <c r="B30" t="s" s="65">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s" s="66">
+        <v>30</v>
+      </c>
+      <c r="D30" s="67">
+        <v>4</v>
+      </c>
+      <c r="E30" s="45"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -7033,17 +6959,17 @@
       <c r="N30" s="30"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" t="s" s="67">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s" s="71">
-        <v>30</v>
-      </c>
-      <c r="D31" s="72">
+      <c r="A31" s="70"/>
+      <c r="B31" t="s" s="65">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="D31" s="67">
         <v>4</v>
       </c>
-      <c r="E31" s="61"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
@@ -7055,17 +6981,17 @@
       <c r="N31" s="30"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" t="s" s="67">
-        <v>90</v>
-      </c>
-      <c r="C32" t="s" s="71">
-        <v>31</v>
-      </c>
-      <c r="D32" s="72">
-        <v>4</v>
-      </c>
-      <c r="E32" s="61"/>
+      <c r="A32" s="70"/>
+      <c r="B32" t="s" s="65">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s" s="66">
+        <v>32</v>
+      </c>
+      <c r="D32" s="67">
+        <v>2</v>
+      </c>
+      <c r="E32" s="45"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
@@ -7077,17 +7003,17 @@
       <c r="N32" s="30"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" t="s" s="67">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s" s="71">
-        <v>32</v>
-      </c>
-      <c r="D33" s="72">
-        <v>2</v>
-      </c>
-      <c r="E33" s="61"/>
+      <c r="A33" s="70"/>
+      <c r="B33" t="s" s="65">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s" s="66">
+        <v>33</v>
+      </c>
+      <c r="D33" s="67">
+        <v>5</v>
+      </c>
+      <c r="E33" s="45"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
@@ -7099,17 +7025,17 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="74"/>
-      <c r="B34" t="s" s="67">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s" s="71">
-        <v>33</v>
-      </c>
-      <c r="D34" s="72">
-        <v>5</v>
-      </c>
-      <c r="E34" s="61"/>
+      <c r="A34" s="70"/>
+      <c r="B34" t="s" s="65">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s" s="66">
+        <v>34</v>
+      </c>
+      <c r="D34" s="67">
+        <v>7</v>
+      </c>
+      <c r="E34" s="45"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
@@ -7121,17 +7047,17 @@
       <c r="N34" s="30"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="74"/>
-      <c r="B35" t="s" s="67">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s" s="71">
-        <v>34</v>
-      </c>
-      <c r="D35" s="72">
-        <v>7</v>
-      </c>
-      <c r="E35" s="61"/>
+      <c r="A35" s="70"/>
+      <c r="B35" t="s" s="65">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s" s="66">
+        <v>35</v>
+      </c>
+      <c r="D35" s="67">
+        <v>9</v>
+      </c>
+      <c r="E35" s="45"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
@@ -7143,17 +7069,17 @@
       <c r="N35" s="30"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" t="s" s="67">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s" s="71">
-        <v>35</v>
-      </c>
-      <c r="D36" s="72">
-        <v>9</v>
-      </c>
-      <c r="E36" s="61"/>
+      <c r="A36" s="70"/>
+      <c r="B36" t="s" s="65">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s" s="66">
+        <v>36</v>
+      </c>
+      <c r="D36" s="67">
+        <v>4</v>
+      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
@@ -7165,17 +7091,17 @@
       <c r="N36" s="30"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="74"/>
-      <c r="B37" t="s" s="67">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s" s="71">
-        <v>36</v>
-      </c>
-      <c r="D37" s="72">
-        <v>4</v>
-      </c>
-      <c r="E37" s="61"/>
+      <c r="A37" s="70"/>
+      <c r="B37" t="s" s="65">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s" s="66">
+        <v>37</v>
+      </c>
+      <c r="D37" s="67">
+        <v>2</v>
+      </c>
+      <c r="E37" s="45"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -7187,17 +7113,17 @@
       <c r="N37" s="30"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" t="s" s="67">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s" s="71">
-        <v>37</v>
-      </c>
-      <c r="D38" s="72">
-        <v>2</v>
-      </c>
-      <c r="E38" s="61"/>
+      <c r="A38" s="70"/>
+      <c r="B38" t="s" s="65">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s" s="66">
+        <v>38</v>
+      </c>
+      <c r="D38" s="67">
+        <v>6</v>
+      </c>
+      <c r="E38" s="45"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
@@ -7209,17 +7135,17 @@
       <c r="N38" s="30"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" t="s" s="67">
-        <v>97</v>
-      </c>
-      <c r="C39" t="s" s="71">
-        <v>38</v>
-      </c>
-      <c r="D39" s="72">
-        <v>6</v>
-      </c>
-      <c r="E39" s="61"/>
+      <c r="A39" s="70"/>
+      <c r="B39" t="s" s="65">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s" s="66">
+        <v>39</v>
+      </c>
+      <c r="D39" s="67">
+        <v>3</v>
+      </c>
+      <c r="E39" s="45"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
@@ -7231,17 +7157,17 @@
       <c r="N39" s="30"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" t="s" s="67">
-        <v>98</v>
-      </c>
-      <c r="C40" t="s" s="71">
-        <v>39</v>
-      </c>
-      <c r="D40" s="72">
-        <v>3</v>
-      </c>
-      <c r="E40" s="61"/>
+      <c r="A40" s="70"/>
+      <c r="B40" t="s" s="65">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s" s="66">
+        <v>40</v>
+      </c>
+      <c r="D40" s="67">
+        <v>2</v>
+      </c>
+      <c r="E40" s="45"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
@@ -7253,17 +7179,17 @@
       <c r="N40" s="30"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="B41" t="s" s="67">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s" s="71">
-        <v>40</v>
-      </c>
-      <c r="D41" s="72">
-        <v>2</v>
-      </c>
-      <c r="E41" s="61"/>
+      <c r="A41" s="70"/>
+      <c r="B41" t="s" s="65">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s" s="66">
+        <v>41</v>
+      </c>
+      <c r="D41" s="67">
+        <v>6</v>
+      </c>
+      <c r="E41" s="45"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
@@ -7275,17 +7201,17 @@
       <c r="N41" s="30"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" t="s" s="67">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s" s="71">
-        <v>41</v>
-      </c>
-      <c r="D42" s="72">
-        <v>6</v>
-      </c>
-      <c r="E42" s="61"/>
+      <c r="A42" s="70"/>
+      <c r="B42" t="s" s="65">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s" s="66">
+        <v>42</v>
+      </c>
+      <c r="D42" s="67">
+        <v>5</v>
+      </c>
+      <c r="E42" s="45"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
@@ -7297,17 +7223,17 @@
       <c r="N42" s="30"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" t="s" s="67">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s" s="71">
-        <v>42</v>
-      </c>
-      <c r="D43" s="72">
-        <v>5</v>
-      </c>
-      <c r="E43" s="61"/>
+      <c r="A43" s="70"/>
+      <c r="B43" t="s" s="65">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s" s="66">
+        <v>43</v>
+      </c>
+      <c r="D43" s="67">
+        <v>3</v>
+      </c>
+      <c r="E43" s="45"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
@@ -7319,17 +7245,17 @@
       <c r="N43" s="30"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" t="s" s="67">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s" s="71">
-        <v>43</v>
-      </c>
-      <c r="D44" s="72">
-        <v>3</v>
-      </c>
-      <c r="E44" s="61"/>
+      <c r="A44" s="70"/>
+      <c r="B44" t="s" s="65">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s" s="66">
+        <v>44</v>
+      </c>
+      <c r="D44" s="67">
+        <v>5</v>
+      </c>
+      <c r="E44" s="45"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
@@ -7341,17 +7267,17 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="74"/>
-      <c r="B45" t="s" s="67">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s" s="71">
-        <v>44</v>
-      </c>
-      <c r="D45" s="72">
-        <v>5</v>
-      </c>
-      <c r="E45" s="61"/>
+      <c r="A45" s="70"/>
+      <c r="B45" t="s" s="65">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s" s="66">
+        <v>45</v>
+      </c>
+      <c r="D45" s="67">
+        <v>36</v>
+      </c>
+      <c r="E45" s="45"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -7363,17 +7289,17 @@
       <c r="N45" s="30"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" t="s" s="67">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s" s="71">
-        <v>45</v>
-      </c>
-      <c r="D46" s="72">
-        <v>36</v>
-      </c>
-      <c r="E46" s="61"/>
+      <c r="A46" s="70"/>
+      <c r="B46" t="s" s="65">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s" s="66">
+        <v>46</v>
+      </c>
+      <c r="D46" s="67">
+        <v>7</v>
+      </c>
+      <c r="E46" s="45"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
@@ -7385,17 +7311,17 @@
       <c r="N46" s="30"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" t="s" s="67">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s" s="71">
-        <v>46</v>
-      </c>
-      <c r="D47" s="72">
-        <v>7</v>
-      </c>
-      <c r="E47" s="61"/>
+      <c r="A47" s="70"/>
+      <c r="B47" t="s" s="65">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s" s="66">
+        <v>47</v>
+      </c>
+      <c r="D47" s="67">
+        <v>1</v>
+      </c>
+      <c r="E47" s="45"/>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
@@ -7407,17 +7333,17 @@
       <c r="N47" s="30"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" t="s" s="67">
-        <v>106</v>
-      </c>
-      <c r="C48" t="s" s="71">
-        <v>47</v>
-      </c>
-      <c r="D48" s="72">
-        <v>1</v>
-      </c>
-      <c r="E48" s="61"/>
+      <c r="A48" s="70"/>
+      <c r="B48" t="s" s="65">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s" s="66">
+        <v>48</v>
+      </c>
+      <c r="D48" s="67">
+        <v>4</v>
+      </c>
+      <c r="E48" s="45"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
@@ -7429,17 +7355,17 @@
       <c r="N48" s="30"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" t="s" s="67">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s" s="71">
-        <v>48</v>
-      </c>
-      <c r="D49" s="72">
-        <v>4</v>
-      </c>
-      <c r="E49" s="61"/>
+      <c r="A49" s="70"/>
+      <c r="B49" t="s" s="65">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s" s="66">
+        <v>49</v>
+      </c>
+      <c r="D49" s="67">
+        <v>57</v>
+      </c>
+      <c r="E49" s="45"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
@@ -7451,17 +7377,17 @@
       <c r="N49" s="30"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" t="s" s="67">
-        <v>108</v>
-      </c>
-      <c r="C50" t="s" s="71">
-        <v>49</v>
-      </c>
-      <c r="D50" s="72">
-        <v>57</v>
-      </c>
-      <c r="E50" s="61"/>
+      <c r="A50" s="70"/>
+      <c r="B50" t="s" s="65">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s" s="66">
+        <v>50</v>
+      </c>
+      <c r="D50" s="67">
+        <v>3</v>
+      </c>
+      <c r="E50" s="45"/>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
@@ -7473,17 +7399,17 @@
       <c r="N50" s="30"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="74"/>
-      <c r="B51" t="s" s="67">
-        <v>109</v>
-      </c>
-      <c r="C51" t="s" s="71">
-        <v>50</v>
-      </c>
-      <c r="D51" s="72">
-        <v>3</v>
-      </c>
-      <c r="E51" s="61"/>
+      <c r="A51" s="70"/>
+      <c r="B51" t="s" s="65">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s" s="66">
+        <v>51</v>
+      </c>
+      <c r="D51" s="67">
+        <v>1</v>
+      </c>
+      <c r="E51" s="45"/>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
@@ -7495,17 +7421,17 @@
       <c r="N51" s="30"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" t="s" s="67">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s" s="71">
-        <v>51</v>
-      </c>
-      <c r="D52" s="72">
-        <v>1</v>
-      </c>
-      <c r="E52" s="61"/>
+      <c r="A52" s="70"/>
+      <c r="B52" t="s" s="65">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s" s="66">
+        <v>52</v>
+      </c>
+      <c r="D52" s="67">
+        <v>7</v>
+      </c>
+      <c r="E52" s="45"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
@@ -7517,17 +7443,17 @@
       <c r="N52" s="30"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="B53" t="s" s="67">
-        <v>111</v>
-      </c>
-      <c r="C53" t="s" s="71">
-        <v>52</v>
-      </c>
-      <c r="D53" s="72">
-        <v>7</v>
-      </c>
-      <c r="E53" s="61"/>
+      <c r="A53" s="70"/>
+      <c r="B53" t="s" s="65">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s" s="66">
+        <v>53</v>
+      </c>
+      <c r="D53" s="67">
+        <v>4</v>
+      </c>
+      <c r="E53" s="45"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
@@ -7539,17 +7465,17 @@
       <c r="N53" s="30"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="74"/>
-      <c r="B54" t="s" s="67">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s" s="71">
-        <v>53</v>
-      </c>
-      <c r="D54" s="72">
-        <v>4</v>
-      </c>
-      <c r="E54" s="61"/>
+      <c r="A54" s="70"/>
+      <c r="B54" t="s" s="65">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s" s="66">
+        <v>54</v>
+      </c>
+      <c r="D54" s="67">
+        <v>2</v>
+      </c>
+      <c r="E54" s="45"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
@@ -7561,17 +7487,17 @@
       <c r="N54" s="30"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="74"/>
-      <c r="B55" t="s" s="67">
-        <v>113</v>
-      </c>
-      <c r="C55" t="s" s="71">
-        <v>54</v>
-      </c>
-      <c r="D55" s="72">
-        <v>2</v>
-      </c>
-      <c r="E55" s="61"/>
+      <c r="A55" s="70"/>
+      <c r="B55" t="s" s="65">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s" s="66">
+        <v>55</v>
+      </c>
+      <c r="D55" s="67">
+        <v>6</v>
+      </c>
+      <c r="E55" s="45"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
@@ -7583,17 +7509,17 @@
       <c r="N55" s="30"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="B56" t="s" s="67">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s" s="71">
-        <v>55</v>
-      </c>
-      <c r="D56" s="72">
-        <v>6</v>
-      </c>
-      <c r="E56" s="61"/>
+      <c r="A56" s="70"/>
+      <c r="B56" t="s" s="65">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s" s="66">
+        <v>56</v>
+      </c>
+      <c r="D56" s="67">
+        <v>8</v>
+      </c>
+      <c r="E56" s="45"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
@@ -7605,17 +7531,17 @@
       <c r="N56" s="30"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" t="s" s="67">
-        <v>115</v>
-      </c>
-      <c r="C57" t="s" s="71">
-        <v>56</v>
-      </c>
-      <c r="D57" s="72">
-        <v>8</v>
-      </c>
-      <c r="E57" s="61"/>
+      <c r="A57" s="70"/>
+      <c r="B57" t="s" s="65">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s" s="66">
+        <v>57</v>
+      </c>
+      <c r="D57" s="67">
+        <v>2</v>
+      </c>
+      <c r="E57" s="45"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
@@ -7627,17 +7553,17 @@
       <c r="N57" s="30"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" t="s" s="67">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s" s="71">
-        <v>57</v>
-      </c>
-      <c r="D58" s="72">
+      <c r="A58" s="70"/>
+      <c r="B58" t="s" s="65">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s" s="66">
+        <v>58</v>
+      </c>
+      <c r="D58" s="67">
         <v>2</v>
       </c>
-      <c r="E58" s="61"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
@@ -7649,17 +7575,17 @@
       <c r="N58" s="30"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" t="s" s="67">
-        <v>117</v>
-      </c>
-      <c r="C59" t="s" s="71">
-        <v>58</v>
-      </c>
-      <c r="D59" s="72">
-        <v>2</v>
-      </c>
-      <c r="E59" s="61"/>
+      <c r="A59" s="70"/>
+      <c r="B59" t="s" s="65">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s" s="66">
+        <v>59</v>
+      </c>
+      <c r="D59" s="67">
+        <v>6</v>
+      </c>
+      <c r="E59" s="45"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
@@ -7671,17 +7597,17 @@
       <c r="N59" s="30"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" t="s" s="67">
-        <v>118</v>
-      </c>
-      <c r="C60" t="s" s="71">
-        <v>59</v>
-      </c>
-      <c r="D60" s="72">
-        <v>6</v>
-      </c>
-      <c r="E60" s="61"/>
+      <c r="A60" s="70"/>
+      <c r="B60" t="s" s="65">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s" s="66">
+        <v>60</v>
+      </c>
+      <c r="D60" s="67">
+        <v>1</v>
+      </c>
+      <c r="E60" s="45"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
@@ -7693,17 +7619,11 @@
       <c r="N60" s="30"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" t="s" s="67">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s" s="71">
-        <v>60</v>
-      </c>
-      <c r="D61" s="72">
-        <v>1</v>
-      </c>
-      <c r="E61" s="61"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="45"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
@@ -7715,11 +7635,11 @@
       <c r="N61" s="30"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="61"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
@@ -7731,11 +7651,11 @@
       <c r="N62" s="30"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="76"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="30"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="61"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="45"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
       <c r="H63" s="30"/>
@@ -7747,11 +7667,11 @@
       <c r="N63" s="30"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="30"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="61"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="45"/>
       <c r="F64" s="30"/>
       <c r="G64" s="30"/>
       <c r="H64" s="30"/>
@@ -7763,11 +7683,11 @@
       <c r="N64" s="30"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="30"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="61"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="45"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
@@ -7779,11 +7699,11 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="30"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="61"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="45"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
@@ -7795,11 +7715,11 @@
       <c r="N66" s="30"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="30"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="61"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="45"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
@@ -7811,11 +7731,11 @@
       <c r="N67" s="30"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="30"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="61"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="45"/>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
@@ -7827,11 +7747,11 @@
       <c r="N68" s="30"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="74"/>
-      <c r="B69" s="76"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="30"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="61"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="45"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
@@ -7843,11 +7763,11 @@
       <c r="N69" s="30"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="74"/>
-      <c r="B70" s="76"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="30"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="61"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="45"/>
       <c r="F70" s="30"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
@@ -7859,11 +7779,11 @@
       <c r="N70" s="30"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="74"/>
-      <c r="B71" s="76"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="61"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="30"/>
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
@@ -7875,11 +7795,11 @@
       <c r="N71" s="30"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="74"/>
-      <c r="B72" s="76"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="30"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="61"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
@@ -7891,11 +7811,11 @@
       <c r="N72" s="30"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="74"/>
-      <c r="B73" s="76"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="61"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="45"/>
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
       <c r="H73" s="30"/>
@@ -7907,11 +7827,11 @@
       <c r="N73" s="30"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="74"/>
-      <c r="B74" s="76"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="30"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="61"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="45"/>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
@@ -7923,11 +7843,11 @@
       <c r="N74" s="30"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="74"/>
-      <c r="B75" s="76"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="30"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="61"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="45"/>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
       <c r="H75" s="30"/>
@@ -7939,11 +7859,11 @@
       <c r="N75" s="30"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="74"/>
-      <c r="B76" s="76"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="61"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="45"/>
       <c r="F76" s="30"/>
       <c r="G76" s="30"/>
       <c r="H76" s="30"/>
@@ -7955,11 +7875,11 @@
       <c r="N76" s="30"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="74"/>
-      <c r="B77" s="76"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="61"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="45"/>
       <c r="F77" s="30"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
@@ -7971,11 +7891,11 @@
       <c r="N77" s="30"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="74"/>
-      <c r="B78" s="76"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="30"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="61"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="45"/>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
       <c r="H78" s="30"/>
@@ -7987,11 +7907,11 @@
       <c r="N78" s="30"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="74"/>
-      <c r="B79" s="76"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="30"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="61"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="45"/>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
       <c r="H79" s="30"/>
@@ -8003,11 +7923,11 @@
       <c r="N79" s="30"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="74"/>
-      <c r="B80" s="76"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="30"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="61"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
       <c r="H80" s="30"/>
@@ -8019,11 +7939,11 @@
       <c r="N80" s="30"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="74"/>
-      <c r="B81" s="76"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="30"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="61"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
@@ -8035,11 +7955,11 @@
       <c r="N81" s="30"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="76"/>
+      <c r="A82" s="70"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="30"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="61"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="45"/>
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
@@ -8051,11 +7971,11 @@
       <c r="N82" s="30"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="76"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="30"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="61"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="30"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
@@ -8067,11 +7987,11 @@
       <c r="N83" s="30"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="74"/>
-      <c r="B84" s="76"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="30"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="61"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="30"/>
       <c r="G84" s="30"/>
       <c r="H84" s="30"/>
@@ -8083,11 +8003,11 @@
       <c r="N84" s="30"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="74"/>
-      <c r="B85" s="76"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="30"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="61"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
@@ -8099,11 +8019,11 @@
       <c r="N85" s="30"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="74"/>
-      <c r="B86" s="76"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="30"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="61"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="45"/>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
       <c r="H86" s="30"/>
@@ -8115,11 +8035,11 @@
       <c r="N86" s="30"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="74"/>
-      <c r="B87" s="76"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="30"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="61"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="45"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
@@ -8131,11 +8051,11 @@
       <c r="N87" s="30"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="74"/>
-      <c r="B88" s="76"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="30"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="61"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="30"/>
       <c r="G88" s="30"/>
       <c r="H88" s="30"/>
@@ -8147,11 +8067,11 @@
       <c r="N88" s="30"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="74"/>
-      <c r="B89" s="76"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="30"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="61"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
@@ -8163,11 +8083,11 @@
       <c r="N89" s="30"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="74"/>
-      <c r="B90" s="76"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="30"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="61"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
       <c r="H90" s="30"/>
@@ -8179,11 +8099,11 @@
       <c r="N90" s="30"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="74"/>
-      <c r="B91" s="76"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="30"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="61"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="45"/>
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
@@ -8195,11 +8115,11 @@
       <c r="N91" s="30"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="74"/>
-      <c r="B92" s="76"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="61"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="45"/>
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
       <c r="H92" s="30"/>
@@ -8211,11 +8131,11 @@
       <c r="N92" s="30"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="74"/>
-      <c r="B93" s="76"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="61"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="45"/>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
       <c r="H93" s="30"/>
@@ -8227,11 +8147,11 @@
       <c r="N93" s="30"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="74"/>
-      <c r="B94" s="76"/>
+      <c r="A94" s="70"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="30"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="61"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="45"/>
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
       <c r="H94" s="30"/>
@@ -8243,11 +8163,11 @@
       <c r="N94" s="30"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="74"/>
-      <c r="B95" s="76"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="30"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="61"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="45"/>
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
@@ -8259,11 +8179,11 @@
       <c r="N95" s="30"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="74"/>
-      <c r="B96" s="76"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="30"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="61"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="45"/>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
       <c r="H96" s="30"/>
@@ -8275,11 +8195,11 @@
       <c r="N96" s="30"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="74"/>
-      <c r="B97" s="76"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="61"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="45"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
@@ -8291,11 +8211,11 @@
       <c r="N97" s="30"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="74"/>
-      <c r="B98" s="76"/>
+      <c r="A98" s="70"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="61"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="45"/>
       <c r="F98" s="30"/>
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
@@ -8307,11 +8227,11 @@
       <c r="N98" s="30"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="74"/>
-      <c r="B99" s="76"/>
+      <c r="A99" s="72"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="30"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="61"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="45"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
       <c r="H99" s="30"/>
@@ -8321,22 +8241,6 @@
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
       <c r="N99" s="30"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="77"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/support/coDuplicateDates.xlsx
+++ b/spec/support/coDuplicateDates.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/workspace/caseflow/spec/support/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CCBE7D-85CE-C645-99C6-5ABAC80F0C7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
-    <sheet name="Board Non-Availability Dates" sheetId="2" r:id="rId2"/>
-    <sheet name="RO Allocations" sheetId="3" r:id="rId3"/>
+    <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId4"/>
+    <sheet name="Board Non-Availability Dates" sheetId="2" r:id="rId5"/>
+    <sheet name="RO Allocations" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>Example</t>
   </si>
@@ -45,9 +36,6 @@
     <t>RO04</t>
   </si>
   <si>
-    <t>RO05</t>
-  </si>
-  <si>
     <t>RO06</t>
   </si>
   <si>
@@ -217,9 +205,6 @@
   </si>
   <si>
     <t>Providence, RI</t>
-  </si>
-  <si>
-    <t>White River Junction, VT</t>
   </si>
   <si>
     <t>New York, NY</t>
@@ -396,13 +381,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -427,10 +423,10 @@
       <name val="Source Sans Pro"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="12"/>
@@ -438,31 +434,25 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="14"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <b val="1"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="16"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color indexed="17"/>
+      <color indexed="16"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -492,13 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -510,18 +500,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="19"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -700,19 +690,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -747,12 +724,8 @@
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -782,26 +755,6 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -866,6 +819,19 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,141 +930,223 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,85 +1156,32 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FFDAEEF3"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FFFDE9D9"/>
-      <rgbColor rgb="FF24292E"/>
-      <rgbColor rgb="FF757171"/>
-      <rgbColor rgb="FFDDEBF7"/>
-      <rgbColor rgb="FFFCE4D6"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff595959"/>
+      <rgbColor rgb="ffdaeef3"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="fff2f2f2"/>
+      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="fffde9d9"/>
+      <rgbColor rgb="ff757171"/>
+      <rgbColor rgb="ffddebf7"/>
+      <rgbColor rgb="fffce4d6"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1228,14 +1223,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -1312,7 +1307,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1321,7 +1316,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1330,7 +1325,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1404,7 +1399,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1412,7 +1407,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1431,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,9 +1435,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
@@ -1461,7 +1456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1482,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1508,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1669,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1682,15 +1677,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1705,7 +1694,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1713,7 +1702,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1732,7 +1721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1758,7 +1747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,7 +1773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1810,7 +1799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1836,7 +1825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1862,7 +1851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1888,7 +1877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1914,7 +1903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1940,7 +1929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1966,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1979,15 +1968,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2001,7 +1984,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2020,7 +2003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2029,9 +2012,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
@@ -2050,7 +2033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2076,7 +2059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2102,7 +2085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2128,7 +2111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2154,7 +2137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2180,7 +2163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2206,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2232,7 +2215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2258,7 +2241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2271,1166 +2254,1138 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IU50"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:BE50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="255" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="57" width="11" style="1" customWidth="1"/>
+    <col min="58" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="56" customHeight="1">
+    <row r="1" ht="56" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="5"/>
-    </row>
-    <row r="2" spans="1:58" ht="39" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="8"/>
+    </row>
+    <row r="2" ht="39" customHeight="1">
+      <c r="A2" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s" s="11">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AV2" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AZ2" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" t="s" s="12">
         <v>54</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" t="s" s="12">
         <v>55</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BD2" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="BF2" s="9" t="s">
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" t="s" s="13">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:58" ht="34" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B3" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" t="s" s="15">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" t="s" s="15">
         <v>62</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" t="s" s="15">
         <v>63</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" t="s" s="16">
         <v>64</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" t="s" s="15">
         <v>65</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" t="s" s="15">
         <v>66</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" t="s" s="15">
         <v>67</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" t="s" s="15">
         <v>68</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" t="s" s="15">
         <v>69</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" t="s" s="15">
         <v>70</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" t="s" s="15">
         <v>71</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" t="s" s="15">
         <v>72</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" t="s" s="15">
         <v>73</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" t="s" s="15">
         <v>74</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" t="s" s="15">
         <v>75</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" t="s" s="15">
         <v>76</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" t="s" s="15">
         <v>77</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" t="s" s="15">
         <v>78</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" t="s" s="15">
         <v>79</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" t="s" s="15">
         <v>81</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" t="s" s="15">
         <v>82</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" t="s" s="15">
         <v>83</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" t="s" s="15">
         <v>84</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" t="s" s="15">
         <v>85</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" t="s" s="15">
         <v>86</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" t="s" s="15">
         <v>87</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" t="s" s="15">
         <v>88</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" t="s" s="15">
         <v>89</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" t="s" s="15">
         <v>90</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" t="s" s="15">
         <v>91</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" t="s" s="15">
         <v>92</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" t="s" s="15">
         <v>93</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" t="s" s="15">
         <v>94</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" t="s" s="15">
         <v>95</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" t="s" s="15">
         <v>96</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" t="s" s="15">
         <v>97</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" t="s" s="15">
         <v>98</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" t="s" s="15">
         <v>99</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" t="s" s="15">
         <v>100</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" t="s" s="15">
         <v>101</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" t="s" s="15">
         <v>102</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" t="s" s="15">
         <v>103</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" t="s" s="15">
         <v>104</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" t="s" s="15">
         <v>106</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" t="s" s="15">
         <v>107</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" t="s" s="15">
         <v>108</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" t="s" s="15">
         <v>109</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" t="s" s="15">
         <v>110</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" t="s" s="15">
         <v>111</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" t="s" s="15">
         <v>112</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" t="s" s="15">
         <v>113</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" t="s" s="15">
         <v>114</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" t="s" s="15">
         <v>115</v>
       </c>
-      <c r="BE3" s="12" t="s">
+    </row>
+    <row r="4" ht="32" customHeight="1">
+      <c r="A4" t="s" s="17">
         <v>116</v>
       </c>
-      <c r="BF3" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" ht="32" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="B4" s="18">
         <v>43466</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="19">
         <v>43128</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>43145</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>43114</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>43114</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="20">
         <v>43114</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="20">
         <v>43114</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="20">
         <v>43114</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="20">
         <v>43114</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="20">
         <v>43114</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="20">
         <v>43114</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="20">
         <v>43114</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="20">
         <v>43114</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="20">
         <v>43114</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="20">
         <v>43114</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="20">
         <v>43114</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="20">
         <v>43114</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="20">
         <v>43114</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="20">
         <v>43114</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="20">
         <v>43114</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="20">
         <v>43114</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="20">
         <v>43114</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="20">
         <v>43114</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="20">
         <v>43114</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="20">
         <v>43114</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="20">
         <v>43114</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="20">
         <v>43114</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="20">
         <v>43114</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="20">
         <v>43114</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="20">
         <v>43114</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="20">
         <v>43114</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AG4" s="20">
         <v>43114</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="20">
         <v>43114</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AI4" s="20">
         <v>43114</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AJ4" s="20">
         <v>43114</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AK4" s="20">
         <v>43114</v>
       </c>
-      <c r="AL4" s="18">
+      <c r="AL4" s="20">
         <v>43114</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="20">
         <v>43114</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AN4" s="20">
         <v>43114</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="20">
         <v>43114</v>
       </c>
-      <c r="AP4" s="18">
+      <c r="AP4" s="20">
         <v>43114</v>
       </c>
-      <c r="AQ4" s="18">
+      <c r="AQ4" s="20">
         <v>43114</v>
       </c>
-      <c r="AR4" s="18">
+      <c r="AR4" s="20">
         <v>43114</v>
       </c>
-      <c r="AS4" s="18">
+      <c r="AS4" s="20">
         <v>43114</v>
       </c>
-      <c r="AT4" s="18">
+      <c r="AT4" s="20">
         <v>43114</v>
       </c>
-      <c r="AU4" s="18">
+      <c r="AU4" s="20">
         <v>43114</v>
       </c>
-      <c r="AV4" s="18">
+      <c r="AV4" s="20">
         <v>43114</v>
       </c>
-      <c r="AW4" s="18">
+      <c r="AW4" s="20">
         <v>43114</v>
       </c>
-      <c r="AX4" s="18">
+      <c r="AX4" s="20">
         <v>43114</v>
       </c>
-      <c r="AY4" s="18">
+      <c r="AY4" s="20">
         <v>43114</v>
       </c>
-      <c r="AZ4" s="18">
+      <c r="AZ4" s="20">
         <v>43114</v>
       </c>
-      <c r="BA4" s="18">
+      <c r="BA4" s="20">
         <v>43114</v>
       </c>
-      <c r="BB4" s="18">
+      <c r="BB4" s="20">
         <v>43114</v>
       </c>
-      <c r="BC4" s="18">
+      <c r="BC4" s="20">
         <v>43114</v>
       </c>
-      <c r="BD4" s="18">
+      <c r="BD4" s="20">
         <v>43114</v>
       </c>
-      <c r="BE4" s="18">
+      <c r="BE4" s="20">
         <v>43114</v>
       </c>
-      <c r="BF4" s="18">
-        <v>43114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" ht="17" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>43497</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="23">
         <v>43198</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="24">
         <v>43251</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="24">
         <v>43115</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="24">
         <v>43115</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="24">
         <v>43115</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="24">
         <v>43115</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="24">
         <v>43115</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="24">
         <v>43115</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="24">
         <v>43115</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="24">
         <v>43115</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="24">
         <v>43115</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="24">
         <v>43115</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="24">
         <v>43115</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="24">
         <v>43115</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="24">
         <v>43115</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="24">
         <v>43115</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="24">
         <v>43115</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="24">
         <v>43115</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="24">
         <v>43115</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="24">
         <v>43115</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="24">
         <v>43115</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="24">
         <v>43115</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="24">
         <v>43115</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="24">
         <v>43115</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA5" s="24">
         <v>43115</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="24">
         <v>43115</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="24">
         <v>43115</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="24">
         <v>43115</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="24">
         <v>43115</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="24">
         <v>43115</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="24">
         <v>43115</v>
       </c>
-      <c r="AH5" s="22">
+      <c r="AH5" s="24">
         <v>43115</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="24">
         <v>43115</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="24">
         <v>43115</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="24">
         <v>43115</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="24">
         <v>43115</v>
       </c>
-      <c r="AM5" s="22">
+      <c r="AM5" s="24">
         <v>43115</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="24">
         <v>43115</v>
       </c>
-      <c r="AO5" s="22">
+      <c r="AO5" s="24">
         <v>43115</v>
       </c>
-      <c r="AP5" s="22">
+      <c r="AP5" s="24">
         <v>43115</v>
       </c>
-      <c r="AQ5" s="22">
+      <c r="AQ5" s="24">
         <v>43115</v>
       </c>
-      <c r="AR5" s="22">
+      <c r="AR5" s="24">
         <v>43115</v>
       </c>
-      <c r="AS5" s="22">
+      <c r="AS5" s="24">
         <v>43115</v>
       </c>
-      <c r="AT5" s="22">
+      <c r="AT5" s="24">
         <v>43115</v>
       </c>
-      <c r="AU5" s="22">
+      <c r="AU5" s="24">
         <v>43115</v>
       </c>
-      <c r="AV5" s="22">
+      <c r="AV5" s="24">
         <v>43115</v>
       </c>
-      <c r="AW5" s="22">
+      <c r="AW5" s="24">
         <v>43115</v>
       </c>
-      <c r="AX5" s="22">
+      <c r="AX5" s="24">
         <v>43115</v>
       </c>
-      <c r="AY5" s="22">
+      <c r="AY5" s="24">
         <v>43115</v>
       </c>
-      <c r="AZ5" s="22">
+      <c r="AZ5" s="24">
         <v>43115</v>
       </c>
-      <c r="BA5" s="22">
+      <c r="BA5" s="24">
         <v>43115</v>
       </c>
-      <c r="BB5" s="22">
+      <c r="BB5" s="24">
         <v>43115</v>
       </c>
-      <c r="BC5" s="22">
+      <c r="BC5" s="24">
         <v>43115</v>
       </c>
-      <c r="BD5" s="22">
+      <c r="BD5" s="24">
         <v>43115</v>
       </c>
-      <c r="BE5" s="22">
+      <c r="BE5" s="24">
         <v>43115</v>
       </c>
-      <c r="BF5" s="22">
-        <v>43115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" ht="17" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="23">
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="25">
         <v>43540</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="23">
         <v>43177</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="24">
         <v>43132</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="24">
         <v>43225</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <v>43225</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>43225</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="24">
         <v>43225</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <v>43225</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="24">
         <v>43225</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <v>43225</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="24">
         <v>43225</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="24">
         <v>43225</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="24">
         <v>43225</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="24">
         <v>43225</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="24">
         <v>43225</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="24">
         <v>43225</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="24">
         <v>43225</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="24">
         <v>43225</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="24">
         <v>43225</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="24">
         <v>43225</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="24">
         <v>43225</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="24">
         <v>43225</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="24">
         <v>43225</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="24">
         <v>43225</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="24">
         <v>43225</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6" s="24">
         <v>43225</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB6" s="24">
         <v>43225</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="24">
         <v>43225</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6" s="24">
         <v>43225</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="24">
         <v>43225</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="24">
         <v>43225</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="24">
         <v>43225</v>
       </c>
-      <c r="AH6" s="22">
+      <c r="AH6" s="24">
         <v>43225</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="24">
         <v>43225</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="24">
         <v>43225</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="24">
         <v>43225</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AL6" s="24">
         <v>43225</v>
       </c>
-      <c r="AM6" s="22">
+      <c r="AM6" s="24">
         <v>43225</v>
       </c>
-      <c r="AN6" s="22">
+      <c r="AN6" s="24">
         <v>43225</v>
       </c>
-      <c r="AO6" s="22">
+      <c r="AO6" s="24">
         <v>43225</v>
       </c>
-      <c r="AP6" s="22">
+      <c r="AP6" s="24">
         <v>43225</v>
       </c>
-      <c r="AQ6" s="22">
+      <c r="AQ6" s="24">
         <v>43225</v>
       </c>
-      <c r="AR6" s="22">
+      <c r="AR6" s="24">
         <v>43225</v>
       </c>
-      <c r="AS6" s="22">
+      <c r="AS6" s="24">
         <v>43225</v>
       </c>
-      <c r="AT6" s="22">
+      <c r="AT6" s="24">
         <v>43225</v>
       </c>
-      <c r="AU6" s="22">
+      <c r="AU6" s="24">
         <v>43225</v>
       </c>
-      <c r="AV6" s="22">
+      <c r="AV6" s="24">
         <v>43225</v>
       </c>
-      <c r="AW6" s="22">
+      <c r="AW6" s="24">
         <v>43225</v>
       </c>
-      <c r="AX6" s="22">
+      <c r="AX6" s="24">
         <v>43225</v>
       </c>
-      <c r="AY6" s="22">
+      <c r="AY6" s="24">
         <v>43225</v>
       </c>
-      <c r="AZ6" s="22">
+      <c r="AZ6" s="24">
         <v>43225</v>
       </c>
-      <c r="BA6" s="22">
+      <c r="BA6" s="24">
         <v>43225</v>
       </c>
-      <c r="BB6" s="22">
+      <c r="BB6" s="24">
         <v>43225</v>
       </c>
-      <c r="BC6" s="22">
+      <c r="BC6" s="24">
         <v>43225</v>
       </c>
-      <c r="BD6" s="22">
+      <c r="BD6" s="24">
         <v>43225</v>
       </c>
-      <c r="BE6" s="22">
+      <c r="BE6" s="24">
         <v>43225</v>
       </c>
-      <c r="BF6" s="22">
-        <v>43225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" ht="17" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24">
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="26">
         <v>43576</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="23">
         <v>43159</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="24">
         <v>43101</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="24">
         <v>43191</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="24">
         <v>43191</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="24">
         <v>43191</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="24">
         <v>43191</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="24">
         <v>43191</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="24">
         <v>43191</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="24">
         <v>43191</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="24">
         <v>43191</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="24">
         <v>43191</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="24">
         <v>43191</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="24">
         <v>43191</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="24">
         <v>43191</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="24">
         <v>43191</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="24">
         <v>43191</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="24">
         <v>43191</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="24">
         <v>43191</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="24">
         <v>43191</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="24">
         <v>43191</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="24">
         <v>43191</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="24">
         <v>43191</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="24">
         <v>43191</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="24">
         <v>43191</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA7" s="24">
         <v>43191</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AB7" s="24">
         <v>43191</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="24">
         <v>43191</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AD7" s="24">
         <v>43191</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="24">
         <v>43191</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AF7" s="24">
         <v>43191</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="24">
         <v>43191</v>
       </c>
-      <c r="AH7" s="22">
+      <c r="AH7" s="24">
         <v>43191</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="24">
         <v>43191</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="24">
         <v>43191</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="24">
         <v>43191</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AL7" s="24">
         <v>43191</v>
       </c>
-      <c r="AM7" s="22">
+      <c r="AM7" s="24">
         <v>43191</v>
       </c>
-      <c r="AN7" s="22">
+      <c r="AN7" s="24">
         <v>43191</v>
       </c>
-      <c r="AO7" s="22">
+      <c r="AO7" s="24">
         <v>43191</v>
       </c>
-      <c r="AP7" s="22">
+      <c r="AP7" s="24">
         <v>43191</v>
       </c>
-      <c r="AQ7" s="22">
+      <c r="AQ7" s="24">
         <v>43191</v>
       </c>
-      <c r="AR7" s="22">
+      <c r="AR7" s="24">
         <v>43191</v>
       </c>
-      <c r="AS7" s="22">
+      <c r="AS7" s="24">
         <v>43191</v>
       </c>
-      <c r="AT7" s="22">
+      <c r="AT7" s="24">
         <v>43191</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="AU7" s="24">
         <v>43191</v>
       </c>
-      <c r="AV7" s="22">
+      <c r="AV7" s="24">
         <v>43191</v>
       </c>
-      <c r="AW7" s="22">
+      <c r="AW7" s="24">
         <v>43191</v>
       </c>
-      <c r="AX7" s="22">
+      <c r="AX7" s="24">
         <v>43191</v>
       </c>
-      <c r="AY7" s="22">
+      <c r="AY7" s="24">
         <v>43191</v>
       </c>
-      <c r="AZ7" s="22">
+      <c r="AZ7" s="24">
         <v>43191</v>
       </c>
-      <c r="BA7" s="22">
+      <c r="BA7" s="24">
         <v>43191</v>
       </c>
-      <c r="BB7" s="22">
+      <c r="BB7" s="24">
         <v>43191</v>
       </c>
-      <c r="BC7" s="22">
+      <c r="BC7" s="24">
         <v>43191</v>
       </c>
-      <c r="BD7" s="22">
+      <c r="BD7" s="24">
         <v>43191</v>
       </c>
-      <c r="BE7" s="22">
+      <c r="BE7" s="24">
         <v>43191</v>
       </c>
-      <c r="BF7" s="22">
-        <v>43191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" ht="17" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="25">
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="27">
         <v>43604</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="22">
-        <v>43180</v>
-      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -3482,141 +3437,132 @@
       <c r="BC8" s="28"/>
       <c r="BD8" s="28"/>
       <c r="BE8" s="28"/>
-      <c r="BF8" s="28"/>
-    </row>
-    <row r="9" spans="1:58" ht="17" customHeight="1">
-      <c r="A9" s="19"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="21"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="31">
-        <v>43116</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28"/>
-    </row>
-    <row r="10" spans="1:58" ht="17" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="31"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="21"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="22">
-        <v>43245</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="27"/>
-      <c r="BE10" s="27"/>
-      <c r="BF10" s="27"/>
-    </row>
-    <row r="11" spans="1:58" ht="17" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="33"/>
+      <c r="BE10" s="33"/>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="21"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="35">
-        <v>43205</v>
-      </c>
+      <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -3667,16 +3613,15 @@
       <c r="BB11" s="30"/>
       <c r="BC11" s="30"/>
       <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="36"/>
-    </row>
-    <row r="12" spans="1:58" ht="17" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="BE11" s="31"/>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="21"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -3728,10 +3673,9 @@
       <c r="BC12" s="33"/>
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-    </row>
-    <row r="13" spans="1:58" ht="17" customHeight="1">
-      <c r="A13" s="19"/>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="21"/>
       <c r="B13" s="34"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -3787,11 +3731,10 @@
       <c r="BB13" s="30"/>
       <c r="BC13" s="30"/>
       <c r="BD13" s="30"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="36"/>
-    </row>
-    <row r="14" spans="1:58" ht="17" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="BE13" s="31"/>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="21"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -3848,10 +3791,9 @@
       <c r="BC14" s="33"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-    </row>
-    <row r="15" spans="1:58" ht="17" customHeight="1">
-      <c r="A15" s="19"/>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="21"/>
       <c r="B15" s="34"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -3907,11 +3849,10 @@
       <c r="BB15" s="30"/>
       <c r="BC15" s="30"/>
       <c r="BD15" s="30"/>
-      <c r="BE15" s="30"/>
-      <c r="BF15" s="36"/>
-    </row>
-    <row r="16" spans="1:58" ht="17" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="BE15" s="31"/>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="21"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -3968,10 +3909,9 @@
       <c r="BC16" s="33"/>
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-    </row>
-    <row r="17" spans="1:58" ht="17" customHeight="1">
-      <c r="A17" s="19"/>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="21"/>
       <c r="B17" s="34"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -4027,11 +3967,10 @@
       <c r="BB17" s="30"/>
       <c r="BC17" s="30"/>
       <c r="BD17" s="30"/>
-      <c r="BE17" s="30"/>
-      <c r="BF17" s="36"/>
-    </row>
-    <row r="18" spans="1:58" ht="17" customHeight="1">
-      <c r="A18" s="19"/>
+      <c r="BE17" s="31"/>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="21"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -4088,10 +4027,9 @@
       <c r="BC18" s="33"/>
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-    </row>
-    <row r="19" spans="1:58" ht="17" customHeight="1">
-      <c r="A19" s="19"/>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="21"/>
       <c r="B19" s="34"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -4147,11 +4085,10 @@
       <c r="BB19" s="30"/>
       <c r="BC19" s="30"/>
       <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="36"/>
-    </row>
-    <row r="20" spans="1:58" ht="17" customHeight="1">
-      <c r="A20" s="19"/>
+      <c r="BE19" s="31"/>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="21"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -4208,10 +4145,9 @@
       <c r="BC20" s="33"/>
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-    </row>
-    <row r="21" spans="1:58" ht="17" customHeight="1">
-      <c r="A21" s="19"/>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="21"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -4267,11 +4203,10 @@
       <c r="BB21" s="30"/>
       <c r="BC21" s="30"/>
       <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
-      <c r="BF21" s="36"/>
-    </row>
-    <row r="22" spans="1:58" ht="17" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="BE21" s="31"/>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="21"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -4328,10 +4263,9 @@
       <c r="BC22" s="33"/>
       <c r="BD22" s="33"/>
       <c r="BE22" s="33"/>
-      <c r="BF22" s="33"/>
-    </row>
-    <row r="23" spans="1:58" ht="17" customHeight="1">
-      <c r="A23" s="19"/>
+    </row>
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" s="21"/>
       <c r="B23" s="34"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -4387,11 +4321,10 @@
       <c r="BB23" s="30"/>
       <c r="BC23" s="30"/>
       <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
-      <c r="BF23" s="36"/>
-    </row>
-    <row r="24" spans="1:58" ht="17" customHeight="1">
-      <c r="A24" s="19"/>
+      <c r="BE23" s="31"/>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="21"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -4448,10 +4381,9 @@
       <c r="BC24" s="33"/>
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-    </row>
-    <row r="25" spans="1:58" ht="17" customHeight="1">
-      <c r="A25" s="19"/>
+    </row>
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" s="21"/>
       <c r="B25" s="34"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -4507,11 +4439,10 @@
       <c r="BB25" s="30"/>
       <c r="BC25" s="30"/>
       <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
-      <c r="BF25" s="36"/>
-    </row>
-    <row r="26" spans="1:58" ht="17" customHeight="1">
-      <c r="A26" s="19"/>
+      <c r="BE25" s="31"/>
+    </row>
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" s="21"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -4568,10 +4499,9 @@
       <c r="BC26" s="33"/>
       <c r="BD26" s="33"/>
       <c r="BE26" s="33"/>
-      <c r="BF26" s="33"/>
-    </row>
-    <row r="27" spans="1:58" ht="17" customHeight="1">
-      <c r="A27" s="19"/>
+    </row>
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" s="21"/>
       <c r="B27" s="34"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -4627,11 +4557,10 @@
       <c r="BB27" s="30"/>
       <c r="BC27" s="30"/>
       <c r="BD27" s="30"/>
-      <c r="BE27" s="30"/>
-      <c r="BF27" s="36"/>
-    </row>
-    <row r="28" spans="1:58" ht="17" customHeight="1">
-      <c r="A28" s="19"/>
+      <c r="BE27" s="31"/>
+    </row>
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" s="21"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -4688,10 +4617,9 @@
       <c r="BC28" s="33"/>
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-    </row>
-    <row r="29" spans="1:58" ht="17" customHeight="1">
-      <c r="A29" s="19"/>
+    </row>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="21"/>
       <c r="B29" s="34"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -4747,11 +4675,10 @@
       <c r="BB29" s="30"/>
       <c r="BC29" s="30"/>
       <c r="BD29" s="30"/>
-      <c r="BE29" s="30"/>
-      <c r="BF29" s="36"/>
-    </row>
-    <row r="30" spans="1:58" ht="17" customHeight="1">
-      <c r="A30" s="19"/>
+      <c r="BE29" s="31"/>
+    </row>
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" s="21"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -4808,10 +4735,9 @@
       <c r="BC30" s="33"/>
       <c r="BD30" s="33"/>
       <c r="BE30" s="33"/>
-      <c r="BF30" s="33"/>
-    </row>
-    <row r="31" spans="1:58" ht="17" customHeight="1">
-      <c r="A31" s="19"/>
+    </row>
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" s="21"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -4867,11 +4793,10 @@
       <c r="BB31" s="30"/>
       <c r="BC31" s="30"/>
       <c r="BD31" s="30"/>
-      <c r="BE31" s="30"/>
-      <c r="BF31" s="36"/>
-    </row>
-    <row r="32" spans="1:58" ht="17" customHeight="1">
-      <c r="A32" s="19"/>
+      <c r="BE31" s="31"/>
+    </row>
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" s="21"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -4928,10 +4853,9 @@
       <c r="BC32" s="33"/>
       <c r="BD32" s="33"/>
       <c r="BE32" s="33"/>
-      <c r="BF32" s="33"/>
-    </row>
-    <row r="33" spans="1:58" ht="17" customHeight="1">
-      <c r="A33" s="19"/>
+    </row>
+    <row r="33" ht="17" customHeight="1">
+      <c r="A33" s="21"/>
       <c r="B33" s="34"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -4987,11 +4911,10 @@
       <c r="BB33" s="30"/>
       <c r="BC33" s="30"/>
       <c r="BD33" s="30"/>
-      <c r="BE33" s="30"/>
-      <c r="BF33" s="36"/>
-    </row>
-    <row r="34" spans="1:58" ht="17" customHeight="1">
-      <c r="A34" s="19"/>
+      <c r="BE33" s="31"/>
+    </row>
+    <row r="34" ht="17" customHeight="1">
+      <c r="A34" s="21"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -5048,10 +4971,9 @@
       <c r="BC34" s="33"/>
       <c r="BD34" s="33"/>
       <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-    </row>
-    <row r="35" spans="1:58" ht="17" customHeight="1">
-      <c r="A35" s="19"/>
+    </row>
+    <row r="35" ht="17" customHeight="1">
+      <c r="A35" s="21"/>
       <c r="B35" s="34"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -5107,11 +5029,10 @@
       <c r="BB35" s="30"/>
       <c r="BC35" s="30"/>
       <c r="BD35" s="30"/>
-      <c r="BE35" s="30"/>
-      <c r="BF35" s="36"/>
-    </row>
-    <row r="36" spans="1:58" ht="17" customHeight="1">
-      <c r="A36" s="19"/>
+      <c r="BE35" s="31"/>
+    </row>
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" s="21"/>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -5168,10 +5089,9 @@
       <c r="BC36" s="33"/>
       <c r="BD36" s="33"/>
       <c r="BE36" s="33"/>
-      <c r="BF36" s="33"/>
-    </row>
-    <row r="37" spans="1:58" ht="17" customHeight="1">
-      <c r="A37" s="19"/>
+    </row>
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" s="21"/>
       <c r="B37" s="34"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -5227,11 +5147,10 @@
       <c r="BB37" s="30"/>
       <c r="BC37" s="30"/>
       <c r="BD37" s="30"/>
-      <c r="BE37" s="30"/>
-      <c r="BF37" s="36"/>
-    </row>
-    <row r="38" spans="1:58" ht="17" customHeight="1">
-      <c r="A38" s="19"/>
+      <c r="BE37" s="31"/>
+    </row>
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" s="21"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -5288,10 +5207,9 @@
       <c r="BC38" s="33"/>
       <c r="BD38" s="33"/>
       <c r="BE38" s="33"/>
-      <c r="BF38" s="33"/>
-    </row>
-    <row r="39" spans="1:58" ht="17" customHeight="1">
-      <c r="A39" s="19"/>
+    </row>
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" s="21"/>
       <c r="B39" s="34"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -5347,11 +5265,10 @@
       <c r="BB39" s="30"/>
       <c r="BC39" s="30"/>
       <c r="BD39" s="30"/>
-      <c r="BE39" s="30"/>
-      <c r="BF39" s="36"/>
-    </row>
-    <row r="40" spans="1:58" ht="17" customHeight="1">
-      <c r="A40" s="19"/>
+      <c r="BE39" s="31"/>
+    </row>
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" s="21"/>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -5408,10 +5325,9 @@
       <c r="BC40" s="33"/>
       <c r="BD40" s="33"/>
       <c r="BE40" s="33"/>
-      <c r="BF40" s="33"/>
-    </row>
-    <row r="41" spans="1:58" ht="17" customHeight="1">
-      <c r="A41" s="19"/>
+    </row>
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" s="21"/>
       <c r="B41" s="34"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -5467,11 +5383,10 @@
       <c r="BB41" s="30"/>
       <c r="BC41" s="30"/>
       <c r="BD41" s="30"/>
-      <c r="BE41" s="30"/>
-      <c r="BF41" s="36"/>
-    </row>
-    <row r="42" spans="1:58" ht="17" customHeight="1">
-      <c r="A42" s="19"/>
+      <c r="BE41" s="31"/>
+    </row>
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" s="21"/>
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -5528,10 +5443,9 @@
       <c r="BC42" s="33"/>
       <c r="BD42" s="33"/>
       <c r="BE42" s="33"/>
-      <c r="BF42" s="33"/>
-    </row>
-    <row r="43" spans="1:58" ht="17" customHeight="1">
-      <c r="A43" s="19"/>
+    </row>
+    <row r="43" ht="17" customHeight="1">
+      <c r="A43" s="21"/>
       <c r="B43" s="34"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
@@ -5587,11 +5501,10 @@
       <c r="BB43" s="30"/>
       <c r="BC43" s="30"/>
       <c r="BD43" s="30"/>
-      <c r="BE43" s="30"/>
-      <c r="BF43" s="36"/>
-    </row>
-    <row r="44" spans="1:58" ht="17" customHeight="1">
-      <c r="A44" s="19"/>
+      <c r="BE43" s="31"/>
+    </row>
+    <row r="44" ht="17" customHeight="1">
+      <c r="A44" s="21"/>
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -5648,10 +5561,9 @@
       <c r="BC44" s="33"/>
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
-      <c r="BF44" s="33"/>
-    </row>
-    <row r="45" spans="1:58" ht="17" customHeight="1">
-      <c r="A45" s="19"/>
+    </row>
+    <row r="45" ht="17" customHeight="1">
+      <c r="A45" s="21"/>
       <c r="B45" s="34"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -5707,11 +5619,10 @@
       <c r="BB45" s="30"/>
       <c r="BC45" s="30"/>
       <c r="BD45" s="30"/>
-      <c r="BE45" s="30"/>
-      <c r="BF45" s="36"/>
-    </row>
-    <row r="46" spans="1:58" ht="17" customHeight="1">
-      <c r="A46" s="19"/>
+      <c r="BE45" s="31"/>
+    </row>
+    <row r="46" ht="17" customHeight="1">
+      <c r="A46" s="21"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -5768,10 +5679,9 @@
       <c r="BC46" s="33"/>
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
-      <c r="BF46" s="33"/>
-    </row>
-    <row r="47" spans="1:58" ht="17" customHeight="1">
-      <c r="A47" s="19"/>
+    </row>
+    <row r="47" ht="17" customHeight="1">
+      <c r="A47" s="21"/>
       <c r="B47" s="34"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -5827,11 +5737,10 @@
       <c r="BB47" s="30"/>
       <c r="BC47" s="30"/>
       <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
-      <c r="BF47" s="36"/>
-    </row>
-    <row r="48" spans="1:58" ht="17" customHeight="1">
-      <c r="A48" s="19"/>
+      <c r="BE47" s="31"/>
+    </row>
+    <row r="48" ht="17" customHeight="1">
+      <c r="A48" s="21"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -5888,10 +5797,9 @@
       <c r="BC48" s="33"/>
       <c r="BD48" s="33"/>
       <c r="BE48" s="33"/>
-      <c r="BF48" s="33"/>
-    </row>
-    <row r="49" spans="1:58" ht="17" customHeight="1">
-      <c r="A49" s="19"/>
+    </row>
+    <row r="49" ht="17" customHeight="1">
+      <c r="A49" s="21"/>
       <c r="B49" s="34"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -5947,2140 +5855,2114 @@
       <c r="BB49" s="30"/>
       <c r="BC49" s="30"/>
       <c r="BD49" s="30"/>
-      <c r="BE49" s="30"/>
-      <c r="BF49" s="36"/>
-    </row>
-    <row r="50" spans="1:58" ht="17" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="39"/>
-      <c r="AQ50" s="39"/>
-      <c r="AR50" s="39"/>
-      <c r="AS50" s="39"/>
-      <c r="AT50" s="39"/>
-      <c r="AU50" s="39"/>
-      <c r="AV50" s="39"/>
-      <c r="AW50" s="39"/>
-      <c r="AX50" s="39"/>
-      <c r="AY50" s="39"/>
-      <c r="AZ50" s="39"/>
-      <c r="BA50" s="39"/>
-      <c r="BB50" s="39"/>
-      <c r="BC50" s="39"/>
-      <c r="BD50" s="39"/>
-      <c r="BE50" s="39"/>
-      <c r="BF50" s="39"/>
+      <c r="BE49" s="31"/>
+    </row>
+    <row r="50" ht="17" customHeight="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="37"/>
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+      <c r="AO50" s="37"/>
+      <c r="AP50" s="37"/>
+      <c r="AQ50" s="37"/>
+      <c r="AR50" s="37"/>
+      <c r="AS50" s="37"/>
+      <c r="AT50" s="37"/>
+      <c r="AU50" s="37"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
+      <c r="AX50" s="37"/>
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="48" style="40" customWidth="1"/>
-    <col min="3" max="256" width="8.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.67188" style="38" customWidth="1"/>
+    <col min="2" max="2" width="48" style="38" customWidth="1"/>
+    <col min="3" max="5" width="8.67188" style="38" customWidth="1"/>
+    <col min="6" max="256" width="8.67188" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="70"/>
+    <row r="1" ht="43.5" customHeight="1">
+      <c r="A1" t="s" s="39">
+        <v>117</v>
+      </c>
+      <c r="B1" s="40"/>
       <c r="C1" s="41"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>118</v>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" ht="43.5" customHeight="1">
+      <c r="A2" s="43"/>
+      <c r="B2" t="s" s="44">
+        <v>116</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" ht="36.75" customHeight="1">
+      <c r="A3" t="s" s="45">
         <v>0</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="46">
         <v>43404</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="18">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="20">
         <v>43114</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="24">
         <v>43115</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="22">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="24">
         <v>43225</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="22">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="24">
         <v>43225</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV98"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="47" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="11" style="47" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="47" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="47" customWidth="1"/>
-    <col min="6" max="256" width="11" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10" style="48" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11" style="48" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="48" customWidth="1"/>
+    <col min="6" max="14" width="11" style="48" customWidth="1"/>
+    <col min="15" max="256" width="11" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="71" t="s">
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" t="s" s="49">
+        <v>118</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" ht="47" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" t="s" s="54">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s" s="55">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="56">
+        <v>119</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" ht="39" customHeight="1">
+      <c r="A3" t="s" s="57">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="58">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="59">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60">
+        <v>10</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" t="s" s="62">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s" s="63">
+        <v>4</v>
+      </c>
+      <c r="D4" s="64">
+        <v>4</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="65"/>
+      <c r="B5" t="s" s="62">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="63">
+        <v>5</v>
+      </c>
+      <c r="D5" s="64">
+        <v>10</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="B6" t="s" s="62">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s" s="63">
+        <v>6</v>
+      </c>
+      <c r="D6" s="64">
+        <v>11</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="67"/>
+      <c r="B7" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s" s="63">
+        <v>7</v>
+      </c>
+      <c r="D7" s="64">
+        <v>4</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="67"/>
+      <c r="B8" t="s" s="62">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s" s="63">
+        <v>8</v>
+      </c>
+      <c r="D8" s="64">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="67"/>
+      <c r="B9" t="s" s="62">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s" s="63">
+        <v>9</v>
+      </c>
+      <c r="D9" s="64">
+        <v>3</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="67"/>
+      <c r="B10" t="s" s="62">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s" s="63">
+        <v>10</v>
+      </c>
+      <c r="D10" s="64">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="67"/>
+      <c r="B11" t="s" s="62">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s" s="63">
+        <v>11</v>
+      </c>
+      <c r="D11" s="64">
+        <v>6</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="67"/>
+      <c r="B12" t="s" s="62">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="63">
+        <v>12</v>
+      </c>
+      <c r="D12" s="64">
+        <v>8</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="67"/>
+      <c r="B13" t="s" s="62">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="63">
+        <v>13</v>
+      </c>
+      <c r="D13" s="64">
+        <v>9</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="67"/>
+      <c r="B14" t="s" s="62">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s" s="63">
+        <v>14</v>
+      </c>
+      <c r="D14" s="64">
+        <v>5</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="67"/>
+      <c r="B15" t="s" s="62">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="D15" s="64">
+        <v>4</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="67"/>
+      <c r="B16" t="s" s="62">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s" s="63">
+        <v>16</v>
+      </c>
+      <c r="D16" s="64">
+        <v>2</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="67"/>
+      <c r="B17" t="s" s="62">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s" s="63">
+        <v>17</v>
+      </c>
+      <c r="D17" s="64">
+        <v>5</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="67"/>
+      <c r="B18" t="s" s="62">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s" s="63">
+        <v>18</v>
+      </c>
+      <c r="D18" s="64">
+        <v>7</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="67"/>
+      <c r="B19" t="s" s="62">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s" s="63">
+        <v>19</v>
+      </c>
+      <c r="D19" s="64">
+        <v>15</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="67"/>
+      <c r="B20" t="s" s="62">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="63">
+        <v>20</v>
+      </c>
+      <c r="D20" s="64">
+        <v>3</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="67"/>
+      <c r="B21" t="s" s="62">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s" s="63">
+        <v>21</v>
+      </c>
+      <c r="D21" s="64">
+        <v>7</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="67"/>
+      <c r="B22" t="s" s="62">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="63">
+        <v>22</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="67"/>
+      <c r="B23" t="s" s="62">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s" s="63">
+        <v>23</v>
+      </c>
+      <c r="D23" s="64">
+        <v>3</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="67"/>
+      <c r="B24" t="s" s="62">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s" s="63">
+        <v>24</v>
+      </c>
+      <c r="D24" s="64">
+        <v>7</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="67"/>
+      <c r="B25" t="s" s="62">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s" s="63">
+        <v>25</v>
+      </c>
+      <c r="D25" s="64">
+        <v>3</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="67"/>
+      <c r="B26" t="s" s="62">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s" s="63">
+        <v>26</v>
+      </c>
+      <c r="D26" s="64">
+        <v>2</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="67"/>
+      <c r="B27" t="s" s="62">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s" s="63">
+        <v>27</v>
+      </c>
+      <c r="D27" s="64">
+        <v>5</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="67"/>
+      <c r="B28" t="s" s="62">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s" s="63">
+        <v>28</v>
+      </c>
+      <c r="D28" s="64">
+        <v>7</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="67"/>
+      <c r="B29" t="s" s="62">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s" s="63">
+        <v>29</v>
+      </c>
+      <c r="D29" s="64">
+        <v>4</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="67"/>
+      <c r="B30" t="s" s="62">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s" s="63">
+        <v>30</v>
+      </c>
+      <c r="D30" s="64">
+        <v>4</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="67"/>
+      <c r="B31" t="s" s="62">
         <v>120</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="C31" t="s" s="63">
+        <v>31</v>
+      </c>
+      <c r="D31" s="64">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="67"/>
+      <c r="B32" t="s" s="62">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s" s="63">
+        <v>32</v>
+      </c>
+      <c r="D32" s="64">
+        <v>5</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="67"/>
+      <c r="B33" t="s" s="62">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s" s="63">
+        <v>33</v>
+      </c>
+      <c r="D33" s="64">
+        <v>7</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="67"/>
+      <c r="B34" t="s" s="62">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s" s="63">
+        <v>34</v>
+      </c>
+      <c r="D34" s="64">
+        <v>9</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="67"/>
+      <c r="B35" t="s" s="62">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s" s="63">
+        <v>35</v>
+      </c>
+      <c r="D35" s="64">
+        <v>4</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="67"/>
+      <c r="B36" t="s" s="62">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s" s="63">
+        <v>36</v>
+      </c>
+      <c r="D36" s="64">
+        <v>2</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="67"/>
+      <c r="B37" t="s" s="62">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s" s="63">
+        <v>37</v>
+      </c>
+      <c r="D37" s="64">
+        <v>6</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="67"/>
+      <c r="B38" t="s" s="62">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s" s="63">
+        <v>38</v>
+      </c>
+      <c r="D38" s="64">
         <v>3</v>
       </c>
-      <c r="D3" s="57">
-        <v>10</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="67"/>
+      <c r="B39" t="s" s="62">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s" s="63">
+        <v>39</v>
+      </c>
+      <c r="D39" s="64">
+        <v>2</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="67"/>
+      <c r="B40" t="s" s="62">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s" s="63">
+        <v>40</v>
+      </c>
+      <c r="D40" s="64">
+        <v>6</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="67"/>
+      <c r="B41" t="s" s="62">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s" s="63">
+        <v>41</v>
+      </c>
+      <c r="D41" s="64">
+        <v>5</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="67"/>
+      <c r="B42" t="s" s="62">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s" s="63">
+        <v>42</v>
+      </c>
+      <c r="D42" s="64">
+        <v>3</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="67"/>
+      <c r="B43" t="s" s="62">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s" s="63">
+        <v>43</v>
+      </c>
+      <c r="D43" s="64">
+        <v>5</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="67"/>
+      <c r="B44" t="s" s="62">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s" s="63">
+        <v>44</v>
+      </c>
+      <c r="D44" s="64">
+        <v>36</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="67"/>
+      <c r="B45" t="s" s="62">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s" s="63">
+        <v>45</v>
+      </c>
+      <c r="D45" s="64">
+        <v>7</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="67"/>
+      <c r="B46" t="s" s="62">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s" s="63">
+        <v>46</v>
+      </c>
+      <c r="D46" s="64">
+        <v>1</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="67"/>
+      <c r="B47" t="s" s="62">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s" s="63">
+        <v>47</v>
+      </c>
+      <c r="D47" s="64">
         <v>4</v>
       </c>
-      <c r="D4" s="61">
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="67"/>
+      <c r="B48" t="s" s="62">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s" s="63">
+        <v>48</v>
+      </c>
+      <c r="D48" s="64">
+        <v>57</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="67"/>
+      <c r="B49" t="s" s="62">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s" s="63">
+        <v>49</v>
+      </c>
+      <c r="D49" s="64">
+        <v>3</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="67"/>
+      <c r="B50" t="s" s="62">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s" s="63">
+        <v>50</v>
+      </c>
+      <c r="D50" s="64">
+        <v>1</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="67"/>
+      <c r="B51" t="s" s="62">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s" s="63">
+        <v>51</v>
+      </c>
+      <c r="D51" s="64">
+        <v>7</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="67"/>
+      <c r="B52" t="s" s="62">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s" s="63">
+        <v>52</v>
+      </c>
+      <c r="D52" s="64">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="61">
-        <v>10</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="67"/>
+      <c r="B53" t="s" s="62">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s" s="63">
+        <v>53</v>
+      </c>
+      <c r="D53" s="64">
+        <v>2</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="67"/>
+      <c r="B54" t="s" s="62">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s" s="63">
+        <v>54</v>
+      </c>
+      <c r="D54" s="64">
         <v>6</v>
       </c>
-      <c r="D6" s="61">
-        <v>11</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="61">
-        <v>7</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="61">
-        <v>4</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="61">
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="67"/>
+      <c r="B55" t="s" s="62">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s" s="63">
+        <v>55</v>
+      </c>
+      <c r="D55" s="64">
+        <v>2</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="67"/>
+      <c r="B56" t="s" s="62">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s" s="63">
+        <v>56</v>
+      </c>
+      <c r="D56" s="64">
+        <v>2</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="67"/>
+      <c r="B57" t="s" s="62">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s" s="63">
+        <v>57</v>
+      </c>
+      <c r="D57" s="64">
         <v>6</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="61">
-        <v>3</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="61">
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="67"/>
+      <c r="B58" t="s" s="62">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s" s="63">
+        <v>58</v>
+      </c>
+      <c r="D58" s="64">
         <v>1</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="61">
-        <v>6</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="61">
-        <v>8</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="61">
-        <v>9</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="61">
-        <v>5</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="61">
-        <v>4</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="61">
-        <v>2</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="61">
-        <v>5</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="61">
-        <v>7</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="61">
-        <v>15</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="61">
-        <v>3</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="61">
-        <v>7</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="61">
-        <v>0</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="61">
-        <v>3</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="61">
-        <v>7</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="61">
-        <v>3</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="61">
-        <v>2</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="61">
-        <v>5</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="61">
-        <v>7</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="61">
-        <v>4</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="61">
-        <v>4</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="61">
-        <v>2</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="61">
-        <v>5</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="61">
-        <v>7</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="61">
-        <v>9</v>
-      </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="61">
-        <v>4</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="61">
-        <v>2</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="61">
-        <v>6</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="61">
-        <v>3</v>
-      </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="61">
-        <v>2</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="61">
-        <v>6</v>
-      </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="61">
-        <v>5</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="61">
-        <v>3</v>
-      </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="61">
-        <v>5</v>
-      </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="61">
-        <v>36</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="61">
-        <v>7</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="61">
-        <v>1</v>
-      </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="61">
-        <v>4</v>
-      </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="61">
-        <v>57</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="61">
-        <v>3</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="61">
-        <v>1</v>
-      </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="61">
-        <v>7</v>
-      </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="61">
-        <v>4</v>
-      </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="61">
-        <v>2</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="64"/>
-      <c r="B55" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="61">
-        <v>6</v>
-      </c>
-      <c r="E55" s="41"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="61">
-        <v>2</v>
-      </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="61">
-        <v>2</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="61">
-        <v>6</v>
-      </c>
       <c r="E58" s="41"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="61">
-        <v>1</v>
-      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="67"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="61"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="64"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="67"/>
       <c r="B61" s="41"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="61"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="64"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="67"/>
       <c r="B62" s="41"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="61"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="64"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="67"/>
       <c r="B63" s="41"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="61"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="64"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="67"/>
       <c r="B64" s="41"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="61"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="69"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="64"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="67"/>
       <c r="B65" s="41"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="61"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="41"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="64"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="67"/>
       <c r="B66" s="41"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="61"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="69"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="64"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="67"/>
       <c r="B67" s="41"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="61"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="41"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="64"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="67"/>
       <c r="B68" s="41"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="61"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="41"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="64"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="67"/>
       <c r="B69" s="41"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="61"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="41"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="64"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="67"/>
       <c r="B70" s="41"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="61"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="69"/>
       <c r="E70" s="41"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="64"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="67"/>
       <c r="B71" s="41"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="61"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="69"/>
       <c r="E71" s="41"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="64"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="67"/>
       <c r="B72" s="41"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="61"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="41"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="64"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="67"/>
       <c r="B73" s="41"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="61"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="69"/>
       <c r="E73" s="41"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="64"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="67"/>
       <c r="B74" s="41"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="61"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="41"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="64"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="67"/>
       <c r="B75" s="41"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="61"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-    </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="64"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="67"/>
       <c r="B76" s="41"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="64"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="67"/>
       <c r="B77" s="41"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="61"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="41"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="64"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="67"/>
       <c r="B78" s="41"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="61"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="69"/>
       <c r="E78" s="41"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="64"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="67"/>
       <c r="B79" s="41"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="61"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="69"/>
       <c r="E79" s="41"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="64"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="67"/>
       <c r="B80" s="41"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="61"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="41"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-    </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="64"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="67"/>
       <c r="B81" s="41"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="61"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-    </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="64"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="67"/>
       <c r="B82" s="41"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="61"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="69"/>
       <c r="E82" s="41"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-    </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="64"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="67"/>
       <c r="B83" s="41"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="61"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="64"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="67"/>
       <c r="B84" s="41"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="61"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="69"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="64"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="67"/>
       <c r="B85" s="41"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="61"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="69"/>
       <c r="E85" s="41"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="64"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="67"/>
       <c r="B86" s="41"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="61"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="69"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-    </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="64"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="67"/>
       <c r="B87" s="41"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="61"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="69"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-    </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="64"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="67"/>
       <c r="B88" s="41"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="61"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="69"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="64"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="67"/>
       <c r="B89" s="41"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="61"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="69"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-    </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="64"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="67"/>
       <c r="B90" s="41"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="61"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="69"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-    </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="64"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="67"/>
       <c r="B91" s="41"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="61"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="69"/>
       <c r="E91" s="41"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-    </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="64"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="67"/>
       <c r="B92" s="41"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="61"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="69"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="64"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="67"/>
       <c r="B93" s="41"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="61"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="69"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="64"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="67"/>
       <c r="B94" s="41"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="61"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="69"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-    </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="64"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="67"/>
       <c r="B95" s="41"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="61"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="69"/>
       <c r="E95" s="41"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-    </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="64"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="67"/>
       <c r="B96" s="41"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="61"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="69"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-    </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="64"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="70"/>
       <c r="B97" s="41"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="61"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="69"/>
       <c r="E97" s="41"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="28"/>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>